--- a/HotelPriceCalculator/Data/MARVIDA  HOTEL  AKMAN PARK.xlsx
+++ b/HotelPriceCalculator/Data/MARVIDA  HOTEL  AKMAN PARK.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odabasi\source\repos\HotelPriceCalculator\HotelPriceCalculator\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6810" tabRatio="889"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6816" tabRatio="889"/>
   </bookViews>
   <sheets>
     <sheet name="CLUB  AKMAN" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CLUB  AKMAN'!$A$1:$I$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CLUB  AKMAN'!$A$1:$I$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>SEZON</t>
-  </si>
-  <si>
-    <t>ÇARPAN</t>
   </si>
   <si>
     <t xml:space="preserve">P.P. </t>
@@ -82,13 +84,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _T_L"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;TL&quot;"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,15 +271,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -1013,9 +1006,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1043,22 +1036,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="33" borderId="25" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="33" borderId="25" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="33" borderId="21" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="33" borderId="21" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="33" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="33" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,7 +1060,7 @@
     <xf numFmtId="165" fontId="23" fillId="33" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="33" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="33" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1075,22 +1068,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="33" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1107,20 +1100,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="33" borderId="28" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="33" borderId="28" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="33" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="33" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="33" borderId="32" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="33" borderId="32" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="33" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="33" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="33" borderId="24" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="23" fillId="33" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -1128,34 +1118,28 @@
     <xf numFmtId="1" fontId="23" fillId="33" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="33" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="33" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="33" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="33" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="30" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="33" borderId="15" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="33" borderId="15" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="33" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="33" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -1163,13 +1147,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="24" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1211,10 +1192,10 @@
     <xf numFmtId="164" fontId="23" fillId="33" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="33" borderId="15" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="33" borderId="15" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="33" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="33" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="23" fillId="37" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1223,7 +1204,7 @@
     <xf numFmtId="164" fontId="23" fillId="37" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="37" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="24" fillId="37" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,22 +1231,22 @@
     <xf numFmtId="165" fontId="21" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="34" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="34" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="34" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="34" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="34" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="34" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="34" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="34" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="34" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="34" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,9 +1367,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1426,9 +1407,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1463,7 +1444,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1498,7 +1479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1672,17 +1653,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="8" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="19.09765625" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <col min="3" max="8" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="10.5" customHeight="1" thickBot="1">
@@ -1697,503 +1678,503 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="B2" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
+      <c r="B4" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:8" ht="9" customHeight="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="7"/>
       <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A8" s="57"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A8" s="54"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="70">
+      <c r="C8" s="66">
         <v>45471</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="65">
         <v>45525</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="65">
         <v>45543</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="65">
         <v>45551</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="65">
         <v>45566</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="65">
         <v>45576</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A9" s="58"/>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A9" s="55"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="72">
+      <c r="C9" s="68">
         <v>45524</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="67">
         <v>45542</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="67">
         <v>45550</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="67">
         <v>45565</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="67">
         <v>45575</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="67">
         <v>45596</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A10" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A11" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="64" t="s">
+      <c r="C10" s="63">
+        <v>3800</v>
+      </c>
+      <c r="D10" s="64">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="63">
+        <v>3400</v>
+      </c>
+      <c r="F10" s="64">
+        <v>3200</v>
+      </c>
+      <c r="G10" s="63">
+        <v>2600</v>
+      </c>
+      <c r="H10" s="64">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6">
+      <c r="A11" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="67">
-        <v>3800</v>
-      </c>
-      <c r="D11" s="68">
-        <v>3700</v>
-      </c>
-      <c r="E11" s="67">
-        <v>3400</v>
-      </c>
-      <c r="F11" s="68">
-        <v>3200</v>
-      </c>
-      <c r="G11" s="67">
-        <v>2600</v>
-      </c>
-      <c r="H11" s="68">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75">
+      <c r="B11" s="35">
+        <v>1.8</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:F11" si="0">+C10*$B11</f>
+        <v>6840</v>
+      </c>
+      <c r="D11" s="39">
+        <f t="shared" ref="D11" si="1">+D10*$B11</f>
+        <v>6660</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" ref="E11:G11" si="2">+E10*$B11</f>
+        <v>6120</v>
+      </c>
+      <c r="F11" s="39">
+        <f t="shared" si="0"/>
+        <v>5760</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="2"/>
+        <v>4680</v>
+      </c>
+      <c r="H11" s="15">
+        <f>+H10*$B11</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.2" thickBot="1">
       <c r="A12" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="35">
-        <v>1.8</v>
-      </c>
-      <c r="C12" s="15">
-        <f t="shared" ref="C12:H12" si="0">+C11*$B12</f>
-        <v>6840</v>
-      </c>
-      <c r="D12" s="39">
-        <f t="shared" ref="D12" si="1">+D11*$B12</f>
-        <v>6660</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" ref="E12:G12" si="2">+E11*$B12</f>
-        <v>6120</v>
-      </c>
-      <c r="F12" s="39">
-        <f t="shared" si="0"/>
-        <v>5760</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" si="2"/>
-        <v>4680</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A13" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="36">
+      <c r="B12" s="36">
         <v>2</v>
       </c>
-      <c r="C13" s="16">
-        <f t="shared" ref="C13:H13" si="3">+C11*$B13</f>
+      <c r="C12" s="16">
+        <f t="shared" ref="C12:F12" si="3">+C10*$B12</f>
         <v>7600</v>
       </c>
-      <c r="D13" s="40">
-        <f t="shared" ref="D13" si="4">+D11*$B13</f>
+      <c r="D12" s="40">
+        <f t="shared" ref="D12" si="4">+D10*$B12</f>
         <v>7400</v>
       </c>
-      <c r="E13" s="16">
-        <f t="shared" ref="E13:G13" si="5">+E11*$B13</f>
+      <c r="E12" s="16">
+        <f t="shared" ref="E12:G12" si="5">+E10*$B12</f>
         <v>6800</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F12" s="40">
         <f t="shared" si="3"/>
         <v>6400</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G12" s="16">
         <f t="shared" si="5"/>
         <v>5200</v>
       </c>
-      <c r="H13" s="16">
-        <f t="shared" si="3"/>
+      <c r="H12" s="16">
+        <f>+H10*$B12</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="15.6">
+      <c r="A13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="37">
+        <v>1.8</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" ref="C13:F13" si="6">+C10*$B13</f>
+        <v>6840</v>
+      </c>
+      <c r="D13" s="41">
+        <f t="shared" ref="D13" si="7">+D10*$B13</f>
+        <v>6660</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" ref="E13:G13" si="8">+E10*$B13</f>
+        <v>6120</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" si="6"/>
+        <v>5760</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="8"/>
+        <v>4680</v>
+      </c>
+      <c r="H13" s="17">
+        <f>+H10*$B13</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" thickBot="1">
       <c r="A14" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="37">
-        <v>1.8</v>
-      </c>
-      <c r="C14" s="17">
-        <f t="shared" ref="C14:H14" si="6">+C11*$B14</f>
-        <v>6840</v>
-      </c>
-      <c r="D14" s="41">
-        <f t="shared" ref="D14" si="7">+D11*$B14</f>
-        <v>6660</v>
-      </c>
-      <c r="E14" s="17">
-        <f t="shared" ref="E14:G14" si="8">+E11*$B14</f>
-        <v>6120</v>
-      </c>
-      <c r="F14" s="41">
-        <f t="shared" si="6"/>
-        <v>5760</v>
-      </c>
-      <c r="G14" s="17">
-        <f t="shared" si="8"/>
-        <v>4680</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="6"/>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A15" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="36">
+      <c r="B14" s="36">
         <v>2</v>
       </c>
-      <c r="C15" s="16">
-        <f t="shared" ref="C15:H15" si="9">+C11*$B15</f>
+      <c r="C14" s="16">
+        <f t="shared" ref="C14:F14" si="9">+C10*$B14</f>
         <v>7600</v>
       </c>
-      <c r="D15" s="40">
-        <f t="shared" ref="D15" si="10">+D11*$B15</f>
+      <c r="D14" s="40">
+        <f t="shared" ref="D14" si="10">+D10*$B14</f>
         <v>7400</v>
       </c>
-      <c r="E15" s="16">
-        <f t="shared" ref="E15:G15" si="11">+E11*$B15</f>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:G14" si="11">+E10*$B14</f>
         <v>6800</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F14" s="40">
         <f t="shared" si="9"/>
         <v>6400</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G14" s="16">
         <f t="shared" si="11"/>
         <v>5200</v>
       </c>
-      <c r="H15" s="16">
-        <f t="shared" si="9"/>
+      <c r="H14" s="16">
+        <f>+H10*$B14</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A17" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="19">
-        <f t="shared" ref="C17:H17" si="12">C11+500</f>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A16" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19">
+        <f t="shared" ref="C16:H16" si="12">C10+500</f>
         <v>4300</v>
       </c>
-      <c r="D17" s="19">
-        <f t="shared" ref="D17:E17" si="13">D11+500</f>
+      <c r="D16" s="19">
+        <f t="shared" ref="D16:E16" si="13">D10+500</f>
         <v>4200</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E16" s="19">
         <f t="shared" si="13"/>
         <v>3900</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F16" s="19">
         <f t="shared" si="12"/>
         <v>3700</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G16" s="19">
         <f t="shared" si="12"/>
         <v>3100</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H16" s="19">
         <f t="shared" si="12"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" ht="15.6">
+      <c r="A17" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="35">
+        <v>1.9</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" ref="C17:F17" si="14">+C16*$B17</f>
+        <v>8170</v>
+      </c>
+      <c r="D17" s="39">
+        <f t="shared" ref="D17" si="15">+D16*$B17</f>
+        <v>7980</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" ref="E17:G17" si="16">+E16*$B17</f>
+        <v>7410</v>
+      </c>
+      <c r="F17" s="39">
+        <f t="shared" si="14"/>
+        <v>7030</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="16"/>
+        <v>5890</v>
+      </c>
+      <c r="H17" s="15">
+        <f>+H16*$B17</f>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1">
       <c r="A18" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="35">
-        <v>1.9</v>
-      </c>
-      <c r="C18" s="15">
-        <f t="shared" ref="C18:H18" si="14">+C17*$B18</f>
-        <v>8170</v>
-      </c>
-      <c r="D18" s="39">
-        <f t="shared" ref="D18" si="15">+D17*$B18</f>
-        <v>7980</v>
-      </c>
-      <c r="E18" s="15">
-        <f t="shared" ref="E18:G18" si="16">+E17*$B18</f>
-        <v>7410</v>
-      </c>
-      <c r="F18" s="39">
-        <f t="shared" si="14"/>
-        <v>7030</v>
-      </c>
-      <c r="G18" s="15">
-        <f t="shared" si="16"/>
-        <v>5890</v>
-      </c>
-      <c r="H18" s="15">
-        <f t="shared" si="14"/>
-        <v>4750</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A19" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="36">
+      <c r="B18" s="36">
         <v>2</v>
       </c>
-      <c r="C19" s="16">
-        <f t="shared" ref="C19:H19" si="17">+C17*$B19</f>
+      <c r="C18" s="16">
+        <f t="shared" ref="C18:F18" si="17">+C16*$B18</f>
         <v>8600</v>
       </c>
-      <c r="D19" s="40">
-        <f t="shared" ref="D19" si="18">+D17*$B19</f>
+      <c r="D18" s="40">
+        <f t="shared" ref="D18" si="18">+D16*$B18</f>
         <v>8400</v>
       </c>
-      <c r="E19" s="16">
-        <f t="shared" ref="E19:G19" si="19">+E17*$B19</f>
+      <c r="E18" s="16">
+        <f t="shared" ref="E18:G18" si="19">+E16*$B18</f>
         <v>7800</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F18" s="40">
         <f t="shared" si="17"/>
         <v>7400</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G18" s="16">
         <f t="shared" si="19"/>
         <v>6200</v>
       </c>
-      <c r="H19" s="16">
-        <f t="shared" si="17"/>
+      <c r="H18" s="16">
+        <f>+H16*$B18</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="73"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="73" t="s">
+        <v>17</v>
+      </c>
       <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="77" t="s">
+      <c r="C20" s="75">
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="75">
+        <v>0.15</v>
+      </c>
+      <c r="E20" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="75">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" thickBot="1">
+      <c r="A22" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="42">
+        <v>3</v>
+      </c>
+      <c r="D22" s="31">
+        <v>3</v>
+      </c>
+      <c r="E22" s="31">
+        <v>3</v>
+      </c>
+      <c r="F22" s="31">
+        <v>2</v>
+      </c>
+      <c r="G22" s="31">
+        <v>2</v>
+      </c>
+      <c r="H22" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" thickBot="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" thickBot="1">
+      <c r="A24" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="56">
+        <v>2</v>
+      </c>
+      <c r="D24" s="57">
+        <v>2</v>
+      </c>
+      <c r="E24" s="57">
+        <v>2</v>
+      </c>
+      <c r="F24" s="57">
+        <v>2</v>
+      </c>
+      <c r="G24" s="57">
+        <v>2</v>
+      </c>
+      <c r="H24" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" thickBot="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6">
+      <c r="A26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6">
+      <c r="A27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79">
-        <v>0.15</v>
-      </c>
-      <c r="D21" s="79">
-        <v>0.15</v>
-      </c>
-      <c r="E21" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="79">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1">
-      <c r="A23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="42">
-        <v>3</v>
-      </c>
-      <c r="D23" s="31">
-        <v>3</v>
-      </c>
-      <c r="E23" s="31">
-        <v>3</v>
-      </c>
-      <c r="F23" s="31">
-        <v>2</v>
-      </c>
-      <c r="G23" s="31">
-        <v>2</v>
-      </c>
-      <c r="H23" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
-      <c r="A25" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="60">
-        <v>2</v>
-      </c>
-      <c r="D25" s="61">
-        <v>2</v>
-      </c>
-      <c r="E25" s="61">
-        <v>2</v>
-      </c>
-      <c r="F25" s="61">
-        <v>2</v>
-      </c>
-      <c r="G25" s="61">
-        <v>2</v>
-      </c>
-      <c r="H25" s="61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2201,11 +2182,11 @@
       <c r="G27" s="2"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="25"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="27"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2213,7 +2194,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="26" t="s">
         <v>11</v>
       </c>
@@ -2225,8 +2206,8 @@
       <c r="G29" s="2"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="27"/>
@@ -2237,35 +2218,23 @@
       <c r="G30" s="2"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:8" ht="14.4" thickBot="1">
+      <c r="A31" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
-      <c r="A32" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="58"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="62"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="62"/>
+      <c r="B33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2274,8 +2243,8 @@
     <mergeCell ref="B2:H3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A31" r:id="rId1"/>
-    <hyperlink ref="A32" r:id="rId2"/>
+    <hyperlink ref="A30" r:id="rId1"/>
+    <hyperlink ref="A31" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" verticalDpi="300" r:id="rId3"/>
